--- a/apps/load_data/2020/08/PLMOVMAE.xlsx
+++ b/apps/load_data/2020/08/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-\HHY0820\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2020-m\HHY0820\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE106BE-055A-446E-9E25-1BE2DD910BF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8CB3AB-8F50-4D03-B6F4-C53F8258042A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9720" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$262</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$261</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11136" uniqueCount="3151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11115" uniqueCount="3148">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6793,9 +6794,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8005,9 +8003,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8291,9 +8286,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -10334,8 +10326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262:XFD262"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42330,12 +42322,7 @@
       <c r="AB173" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>106</v>
       </c>
@@ -42388,16 +42375,16 @@
         <v>20</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BG173" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH173" s="1" t="s">
+        <v>2257</v>
+      </c>
+      <c r="BI173" s="1" t="s">
         <v>2258</v>
-      </c>
-      <c r="BI173" s="1" t="s">
-        <v>2259</v>
       </c>
       <c r="BM173" s="1" t="s">
         <v>116</v>
@@ -42412,13 +42399,13 @@
         <v>162</v>
       </c>
       <c r="BR173" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="BS173" s="3">
         <v>36225</v>
       </c>
       <c r="BT173" s="1" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="BU173" s="1" t="s">
         <v>120</v>
@@ -42439,19 +42426,19 @@
         <v>101</v>
       </c>
       <c r="CC173" s="1" t="s">
+        <v>2261</v>
+      </c>
+      <c r="CD173" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="CD173" s="1" t="s">
+      <c r="CE173" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="CE173" s="1" t="s">
+      <c r="CG173" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="CG173" s="1" t="s">
+      <c r="CH173" s="1" t="s">
         <v>2265</v>
-      </c>
-      <c r="CH173" s="1" t="s">
-        <v>2266</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>128</v>
@@ -42489,13 +42476,13 @@
         <v>96</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2266</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2267</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2268</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2269</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>100</v>
@@ -42527,12 +42514,7 @@
       <c r="AB174" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>106</v>
       </c>
@@ -42579,7 +42561,7 @@
         <v>101</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="BB174" s="1">
         <v>8</v>
@@ -42588,13 +42570,13 @@
         <v>20</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="BI174" s="1" t="s">
         <v>1648</v>
@@ -42609,13 +42591,13 @@
         <v>102</v>
       </c>
       <c r="BR174" s="1" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="BS174" s="3">
         <v>36949</v>
       </c>
       <c r="BT174" s="1" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="BU174" s="1" t="s">
         <v>120</v>
@@ -42639,16 +42621,16 @@
         <v>101</v>
       </c>
       <c r="CC174" s="1" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="CD174" s="1" t="s">
         <v>1961</v>
       </c>
       <c r="CE174" s="1" t="s">
+        <v>2275</v>
+      </c>
+      <c r="CG174" s="1" t="s">
         <v>2276</v>
-      </c>
-      <c r="CG174" s="1" t="s">
-        <v>2277</v>
       </c>
       <c r="CH174" s="1" t="s">
         <v>1653</v>
@@ -42689,13 +42671,13 @@
         <v>96</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2279</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2280</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>100</v>
@@ -42727,12 +42709,7 @@
       <c r="AB175" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>106</v>
       </c>
@@ -42779,7 +42756,7 @@
         <v>101</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="BB175" s="1">
         <v>8</v>
@@ -42788,13 +42765,13 @@
         <v>20</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="BI175" s="1" t="s">
         <v>1659</v>
@@ -42812,13 +42789,13 @@
         <v>162</v>
       </c>
       <c r="BR175" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="BS175" s="3">
         <v>36825</v>
       </c>
       <c r="BT175" s="1" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="BU175" s="1" t="s">
         <v>120</v>
@@ -42842,16 +42819,16 @@
         <v>101</v>
       </c>
       <c r="CC175" s="1" t="s">
+        <v>2285</v>
+      </c>
+      <c r="CD175" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="CD175" s="1" t="s">
+      <c r="CE175" s="1" t="s">
         <v>2287</v>
       </c>
-      <c r="CE175" s="1" t="s">
+      <c r="CG175" s="1" t="s">
         <v>2288</v>
-      </c>
-      <c r="CG175" s="1" t="s">
-        <v>2289</v>
       </c>
       <c r="CH175" s="1" t="s">
         <v>1666</v>
@@ -42892,13 +42869,13 @@
         <v>96</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2290</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2291</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2292</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>100</v>
@@ -42927,12 +42904,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>106</v>
       </c>
@@ -42982,7 +42954,7 @@
         <v>101</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BB176" s="1">
         <v>8</v>
@@ -42991,13 +42963,13 @@
         <v>20</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH176" s="1" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="BI176" s="1" t="s">
         <v>771</v>
@@ -43009,7 +42981,7 @@
         <v>105</v>
       </c>
       <c r="BT176" s="1" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BU176" s="1" t="s">
         <v>120</v>
@@ -43027,16 +42999,16 @@
         <v>101</v>
       </c>
       <c r="CC176" s="1" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="CD176" s="1" t="s">
         <v>1207</v>
       </c>
       <c r="CE176" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="CG176" s="1" t="s">
         <v>2298</v>
-      </c>
-      <c r="CG176" s="1" t="s">
-        <v>2299</v>
       </c>
       <c r="CH176" s="1" t="s">
         <v>777</v>
@@ -43077,13 +43049,13 @@
         <v>96</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2299</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2301</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2302</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>100</v>
@@ -43115,12 +43087,7 @@
       <c r="AB177" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>106</v>
       </c>
@@ -43170,7 +43137,7 @@
         <v>101</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BB177" s="1">
         <v>8</v>
@@ -43179,13 +43146,13 @@
         <v>20</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH177" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BI177" s="1" t="s">
         <v>1809</v>
@@ -43197,7 +43164,7 @@
         <v>105</v>
       </c>
       <c r="BT177" s="1" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="BU177" s="1" t="s">
         <v>120</v>
@@ -43218,13 +43185,13 @@
         <v>679</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2306</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CG177" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="CG177" s="1" t="s">
-        <v>2309</v>
       </c>
       <c r="CH177" s="1" t="s">
         <v>1813</v>
@@ -43265,13 +43232,13 @@
         <v>96</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>100</v>
@@ -43300,12 +43267,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>106</v>
       </c>
@@ -43355,7 +43317,7 @@
         <v>101</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BB178" s="1">
         <v>8</v>
@@ -43364,13 +43326,13 @@
         <v>20</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>771</v>
@@ -43382,7 +43344,7 @@
         <v>105</v>
       </c>
       <c r="BT178" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BU178" s="1" t="s">
         <v>120</v>
@@ -43400,16 +43362,16 @@
         <v>101</v>
       </c>
       <c r="CC178" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="CD178" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="CD178" s="1" t="s">
-        <v>2317</v>
-      </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CG178" s="1" t="s">
         <v>2318</v>
-      </c>
-      <c r="CG178" s="1" t="s">
-        <v>2319</v>
       </c>
       <c r="CH178" s="1" t="s">
         <v>777</v>
@@ -43450,13 +43412,13 @@
         <v>96</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2319</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2320</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2321</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2322</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>100</v>
@@ -43491,12 +43453,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>106</v>
       </c>
@@ -43543,7 +43500,7 @@
         <v>101</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="BB179" s="1">
         <v>8</v>
@@ -43552,13 +43509,13 @@
         <v>20</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BI179" s="1" t="s">
         <v>414</v>
@@ -43573,13 +43530,13 @@
         <v>117</v>
       </c>
       <c r="BR179" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BS179" s="3">
         <v>35243</v>
       </c>
       <c r="BT179" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BU179" s="1" t="s">
         <v>120</v>
@@ -43597,16 +43554,16 @@
         <v>101</v>
       </c>
       <c r="CC179" s="1" t="s">
+        <v>2327</v>
+      </c>
+      <c r="CD179" s="1" t="s">
         <v>2328</v>
       </c>
-      <c r="CD179" s="1" t="s">
+      <c r="CE179" s="1" t="s">
         <v>2329</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CG179" s="1" t="s">
         <v>2330</v>
-      </c>
-      <c r="CG179" s="1" t="s">
-        <v>2331</v>
       </c>
       <c r="CH179" s="1" t="s">
         <v>421</v>
@@ -43647,13 +43604,13 @@
         <v>96</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2331</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2333</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2334</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>100</v>
@@ -43682,12 +43639,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>106</v>
       </c>
@@ -43737,7 +43689,7 @@
         <v>101</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="BB180" s="1">
         <v>8</v>
@@ -43746,13 +43698,13 @@
         <v>20</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>594</v>
@@ -43764,7 +43716,7 @@
         <v>105</v>
       </c>
       <c r="BT180" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BU180" s="1" t="s">
         <v>120</v>
@@ -43782,16 +43734,16 @@
         <v>101</v>
       </c>
       <c r="CC180" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="CD180" s="1" t="s">
         <v>2339</v>
       </c>
-      <c r="CD180" s="1" t="s">
+      <c r="CE180" s="1" t="s">
         <v>2340</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CG180" s="1" t="s">
         <v>2341</v>
-      </c>
-      <c r="CG180" s="1" t="s">
-        <v>2342</v>
       </c>
       <c r="CH180" s="1" t="s">
         <v>600</v>
@@ -43832,13 +43784,13 @@
         <v>96</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2343</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2344</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2345</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>100</v>
@@ -43867,12 +43819,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>106</v>
       </c>
@@ -43922,7 +43869,7 @@
         <v>101</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="BB181" s="1">
         <v>8</v>
@@ -43931,13 +43878,13 @@
         <v>20</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH181" s="1" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="BI181" s="1" t="s">
         <v>771</v>
@@ -43952,7 +43899,7 @@
         <v>162</v>
       </c>
       <c r="BT181" s="1" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="BU181" s="1" t="s">
         <v>120</v>
@@ -43970,16 +43917,16 @@
         <v>101</v>
       </c>
       <c r="CC181" s="1" t="s">
+        <v>2349</v>
+      </c>
+      <c r="CD181" s="1" t="s">
         <v>2350</v>
       </c>
-      <c r="CD181" s="1" t="s">
+      <c r="CE181" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="CE181" s="1" t="s">
+      <c r="CG181" s="1" t="s">
         <v>2352</v>
-      </c>
-      <c r="CG181" s="1" t="s">
-        <v>2353</v>
       </c>
       <c r="CH181" s="1" t="s">
         <v>777</v>
@@ -43996,13 +43943,13 @@
         <v>88</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>101</v>
@@ -44014,19 +43961,19 @@
         <v>94</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2359</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2360</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>100</v>
@@ -44058,12 +44005,7 @@
       <c r="AA182" s="1">
         <v>0</v>
       </c>
-      <c r="AC182" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD182" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC182" s="3"/>
       <c r="AF182" s="1" t="s">
         <v>106</v>
       </c>
@@ -44113,7 +44055,7 @@
         <v>101</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BB182" s="1">
         <v>8</v>
@@ -44122,13 +44064,13 @@
         <v>20</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BM182" s="1" t="s">
         <v>116</v>
@@ -44137,7 +44079,7 @@
         <v>105</v>
       </c>
       <c r="BT182" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BU182" s="1" t="s">
         <v>120</v>
@@ -44158,16 +44100,16 @@
         <v>101</v>
       </c>
       <c r="CC182" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="CD182" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="CD182" s="1" t="s">
+      <c r="CE182" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="CE182" s="1" t="s">
+      <c r="CG182" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="CG182" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="CH182" s="1" t="s">
         <v>128</v>
@@ -44208,13 +44150,13 @@
         <v>96</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2370</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2371</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>100</v>
@@ -44243,12 +44185,7 @@
       <c r="AA183" s="1">
         <v>0</v>
       </c>
-      <c r="AC183" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD183" s="1" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC183" s="3"/>
       <c r="AF183" s="1" t="s">
         <v>106</v>
       </c>
@@ -44295,7 +44232,7 @@
         <v>101</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BB183" s="1">
         <v>8</v>
@@ -44304,13 +44241,13 @@
         <v>20</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>594</v>
@@ -44325,13 +44262,13 @@
         <v>117</v>
       </c>
       <c r="BR183" s="1" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="BS183" s="3">
         <v>35950</v>
       </c>
       <c r="BT183" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BU183" s="1" t="s">
         <v>120</v>
@@ -44349,16 +44286,16 @@
         <v>101</v>
       </c>
       <c r="CC183" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="CD183" s="1" t="s">
         <v>1769</v>
       </c>
       <c r="CE183" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="CG183" s="1" t="s">
         <v>2378</v>
-      </c>
-      <c r="CG183" s="1" t="s">
-        <v>2379</v>
       </c>
       <c r="CH183" s="1" t="s">
         <v>600</v>
@@ -44399,13 +44336,13 @@
         <v>96</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2379</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>100</v>
@@ -44486,7 +44423,7 @@
         <v>101</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="BB184" s="1">
         <v>8</v>
@@ -44495,13 +44432,13 @@
         <v>20</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH184" s="1" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="BI184" s="1" t="s">
         <v>1852</v>
@@ -44516,7 +44453,7 @@
         <v>162</v>
       </c>
       <c r="BT184" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BU184" s="1" t="s">
         <v>120</v>
@@ -44534,16 +44471,16 @@
         <v>101</v>
       </c>
       <c r="CC184" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="CD184" s="1" t="s">
         <v>418</v>
       </c>
       <c r="CE184" s="1" t="s">
+        <v>2387</v>
+      </c>
+      <c r="CG184" s="1" t="s">
         <v>2388</v>
-      </c>
-      <c r="CG184" s="1" t="s">
-        <v>2389</v>
       </c>
       <c r="CH184" s="1" t="s">
         <v>1859</v>
@@ -44584,13 +44521,13 @@
         <v>96</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2389</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2390</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>100</v>
@@ -44665,7 +44602,7 @@
         <v>101</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="BB185" s="1">
         <v>8</v>
@@ -44674,16 +44611,16 @@
         <v>20</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH185" s="1" t="s">
+        <v>2394</v>
+      </c>
+      <c r="BI185" s="1" t="s">
         <v>2395</v>
-      </c>
-      <c r="BI185" s="1" t="s">
-        <v>2396</v>
       </c>
       <c r="BM185" s="1" t="s">
         <v>116</v>
@@ -44695,13 +44632,13 @@
         <v>228</v>
       </c>
       <c r="BR185" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BS185" s="3">
         <v>36099</v>
       </c>
       <c r="BT185" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BU185" s="1" t="s">
         <v>120</v>
@@ -44719,19 +44656,19 @@
         <v>101</v>
       </c>
       <c r="CC185" s="1" t="s">
+        <v>2398</v>
+      </c>
+      <c r="CD185" s="1" t="s">
         <v>2399</v>
       </c>
-      <c r="CD185" s="1" t="s">
+      <c r="CE185" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="CE185" s="1" t="s">
+      <c r="CG185" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="CG185" s="1" t="s">
+      <c r="CH185" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>128</v>
@@ -44769,13 +44706,13 @@
         <v>96</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>100</v>
@@ -44850,7 +44787,7 @@
         <v>101</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BB186" s="1">
         <v>8</v>
@@ -44859,16 +44796,16 @@
         <v>20</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>116</v>
@@ -44880,13 +44817,13 @@
         <v>102</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BS186" s="3">
         <v>37735</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>120</v>
@@ -44904,19 +44841,19 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="CG186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2416</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2417</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>128</v>
@@ -44954,13 +44891,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2419</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2420</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -45038,7 +44975,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BB187" s="1">
         <v>8</v>
@@ -45047,13 +44984,13 @@
         <v>20</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH187" s="1" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>116</v>
@@ -45062,7 +44999,7 @@
         <v>105</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>120</v>
@@ -45080,16 +45017,16 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="CD187" s="1" t="s">
         <v>863</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="CG187" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="CG187" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="CH187" s="1" t="s">
         <v>128</v>
@@ -45112,7 +45049,7 @@
         <v>129</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>101</v>
@@ -45124,19 +45061,19 @@
         <v>94</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2431</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2432</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -45172,7 +45109,7 @@
         <v>106</v>
       </c>
       <c r="AG188" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="AH188" s="1" t="s">
         <v>1886</v>
@@ -45217,7 +45154,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BB188" s="1">
         <v>8</v>
@@ -45226,13 +45163,13 @@
         <v>20</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>116</v>
@@ -45241,7 +45178,7 @@
         <v>105</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>120</v>
@@ -45250,7 +45187,7 @@
         <v>0</v>
       </c>
       <c r="BZ188" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="CA188" s="1" t="s">
         <v>122</v>
@@ -45262,13 +45199,13 @@
         <v>1567</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="CG188" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="CH188" s="1" t="s">
         <v>128</v>
@@ -45309,13 +45246,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2441</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2442</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2443</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2444</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -45393,7 +45330,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BB189" s="1">
         <v>8</v>
@@ -45402,16 +45339,16 @@
         <v>20</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="BM189" s="1" t="s">
         <v>116</v>
@@ -45423,13 +45360,13 @@
         <v>102</v>
       </c>
       <c r="BR189" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="BS189" s="3">
         <v>43602</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>120</v>
@@ -45453,13 +45390,13 @@
         <v>943</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2450</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="CG189" s="1" t="s">
+      <c r="CH189" s="1" t="s">
         <v>2452</v>
-      </c>
-      <c r="CH189" s="1" t="s">
-        <v>2453</v>
       </c>
       <c r="CI189" s="1" t="s">
         <v>128</v>
@@ -45497,13 +45434,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2455</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2456</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -45581,7 +45518,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BB190" s="1">
         <v>8</v>
@@ -45590,7 +45527,7 @@
         <v>20</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>113</v>
@@ -45608,7 +45545,7 @@
         <v>105</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>120</v>
@@ -45626,13 +45563,13 @@
         <v>101</v>
       </c>
       <c r="CC190" s="1" t="s">
+        <v>2459</v>
+      </c>
+      <c r="CD190" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="CD190" s="1" t="s">
+      <c r="CE190" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="CE190" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="CG190" s="1" t="s">
         <v>742</v>
@@ -45676,13 +45613,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -45721,7 +45658,7 @@
         <v>42247</v>
       </c>
       <c r="AD191" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="AF191" s="1" t="s">
         <v>106</v>
@@ -45775,16 +45712,16 @@
         <v>20</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH191" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="BI191" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="BI191" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="BM191" s="1" t="s">
         <v>116</v>
@@ -45796,13 +45733,13 @@
         <v>228</v>
       </c>
       <c r="BR191" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BS191" s="3">
         <v>36580</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>120</v>
@@ -45823,7 +45760,7 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="CD191" s="1" t="s">
         <v>295</v>
@@ -45832,10 +45769,10 @@
         <v>1596</v>
       </c>
       <c r="CG191" s="1" t="s">
+        <v>2472</v>
+      </c>
+      <c r="CH191" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>128</v>
@@ -45873,13 +45810,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -45960,13 +45897,13 @@
         <v>20</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>1865</v>
@@ -45981,13 +45918,13 @@
         <v>117</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BS192" s="3">
         <v>37747</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>120</v>
@@ -46011,10 +45948,10 @@
         <v>667</v>
       </c>
       <c r="CE192" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="CG192" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>1872</v>
@@ -46055,13 +45992,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2484</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2485</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2486</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46145,13 +46082,13 @@
         <v>20</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>116</v>
@@ -46160,7 +46097,7 @@
         <v>105</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>120</v>
@@ -46178,16 +46115,16 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2489</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2491</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2492</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2493</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>128</v>
@@ -46228,13 +46165,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2493</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2495</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2496</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -46318,13 +46255,13 @@
         <v>20</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>116</v>
@@ -46333,7 +46270,7 @@
         <v>162</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>120</v>
@@ -46351,16 +46288,16 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2502</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2503</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>128</v>
@@ -46401,13 +46338,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2505</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2506</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -46488,16 +46425,16 @@
         <v>20</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>116</v>
@@ -46509,13 +46446,13 @@
         <v>102</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BS195" s="3">
         <v>37334</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>120</v>
@@ -46536,16 +46473,16 @@
         <v>518</v>
       </c>
       <c r="CD195" s="1" t="s">
+        <v>2511</v>
+      </c>
+      <c r="CE195" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="CE195" s="1" t="s">
+      <c r="CG195" s="1" t="s">
+        <v>2378</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="CG195" s="1" t="s">
-        <v>2379</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>128</v>
@@ -46583,13 +46520,13 @@
         <v>383</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2516</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2517</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -46670,16 +46607,16 @@
         <v>20</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2518</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>116</v>
@@ -46691,13 +46628,13 @@
         <v>102</v>
       </c>
       <c r="BR196" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BS196" s="3">
         <v>37904</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>120</v>
@@ -46718,16 +46655,16 @@
         <v>943</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="CG196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="CH196" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="CI196" s="1" t="s">
         <v>128</v>
@@ -46747,7 +46684,7 @@
         <v>129</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>101</v>
@@ -46759,19 +46696,19 @@
         <v>94</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -46852,13 +46789,13 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BG197" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>116</v>
@@ -46870,13 +46807,13 @@
         <v>117</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BS197" s="3">
         <v>36111</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>120</v>
@@ -46885,7 +46822,7 @@
         <v>0</v>
       </c>
       <c r="BZ197" s="1" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="CA197" s="1" t="s">
         <v>122</v>
@@ -46894,16 +46831,16 @@
         <v>101</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2534</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2535</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2536</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>128</v>
@@ -46944,13 +46881,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47031,13 +46968,13 @@
         <v>20</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="BI198" s="1" t="s">
         <v>1852</v>
@@ -47052,13 +46989,13 @@
         <v>117</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BS198" s="3">
         <v>37785</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>120</v>
@@ -47076,16 +47013,16 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="CG198" s="1" t="s">
-        <v>2547</v>
       </c>
       <c r="CH198" s="1" t="s">
         <v>1859</v>
@@ -47102,10 +47039,10 @@
         <v>88</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>151</v>
@@ -47120,19 +47057,19 @@
         <v>94</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47219,13 +47156,13 @@
         <v>20</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BM199" s="1" t="s">
         <v>116</v>
@@ -47234,7 +47171,7 @@
         <v>105</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>120</v>
@@ -47243,7 +47180,7 @@
         <v>0</v>
       </c>
       <c r="BZ199" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="CA199" s="1" t="s">
         <v>122</v>
@@ -47255,13 +47192,13 @@
         <v>1239</v>
       </c>
       <c r="CD199" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="CE199" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>128</v>
@@ -47302,13 +47239,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -47386,7 +47323,7 @@
         <v>101</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BB200" s="1">
         <v>8</v>
@@ -47395,7 +47332,7 @@
         <v>20</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>113</v>
@@ -47410,7 +47347,7 @@
         <v>105</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>120</v>
@@ -47428,13 +47365,13 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="CE200" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="CG200" s="1" t="s">
         <v>1018</v>
@@ -47478,13 +47415,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2568</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2570</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2571</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -47562,7 +47499,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="BB201" s="1">
         <v>8</v>
@@ -47571,13 +47508,13 @@
         <v>20</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1865</v>
@@ -47589,7 +47526,7 @@
         <v>105</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>120</v>
@@ -47607,16 +47544,16 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="CD201" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2576</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2577</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>1872</v>
@@ -47657,13 +47594,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2577</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2578</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2579</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2580</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -47741,7 +47678,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="BB202" s="1">
         <v>8</v>
@@ -47750,13 +47687,13 @@
         <v>20</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BM202" s="1" t="s">
         <v>116</v>
@@ -47765,7 +47702,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>120</v>
@@ -47786,13 +47723,13 @@
         <v>1101</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2584</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2586</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2587</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>128</v>
@@ -47833,13 +47770,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2589</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2590</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -47917,7 +47854,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
       <c r="BB203" s="1">
         <v>8</v>
@@ -47926,13 +47863,13 @@
         <v>20</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
       <c r="BG203" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="BI203" s="1" t="s">
         <v>1865</v>
@@ -47950,13 +47887,13 @@
         <v>162</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BS203" s="3">
         <v>37513</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>120</v>
@@ -47974,16 +47911,16 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="CD203" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE203" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="CG203" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1872</v>
@@ -48024,13 +47961,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2599</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2600</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2601</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48111,16 +48048,16 @@
         <v>20</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>116</v>
@@ -48132,13 +48069,13 @@
         <v>102</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BS204" s="3">
         <v>41024</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>120</v>
@@ -48156,19 +48093,19 @@
         <v>101</v>
       </c>
       <c r="CC204" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="CD204" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="CD204" s="1" t="s">
+      <c r="CE204" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CG204" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>128</v>
@@ -48206,13 +48143,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2611</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -48248,7 +48185,7 @@
         <v>106</v>
       </c>
       <c r="AG205" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="AH205" s="1" t="s">
         <v>1886</v>
@@ -48293,7 +48230,7 @@
         <v>101</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="BB205" s="1">
         <v>8</v>
@@ -48302,13 +48239,13 @@
         <v>20</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>1809</v>
@@ -48323,13 +48260,13 @@
         <v>117</v>
       </c>
       <c r="BR205" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BS205" s="3">
         <v>34808</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>120</v>
@@ -48347,16 +48284,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>1813</v>
@@ -48397,13 +48334,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -48478,7 +48415,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="BB206" s="1">
         <v>8</v>
@@ -48487,13 +48424,13 @@
         <v>20</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>771</v>
@@ -48508,13 +48445,13 @@
         <v>102</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
       <c r="BS206" s="3">
         <v>37336</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>120</v>
@@ -48532,16 +48469,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="CD206" s="1" t="s">
         <v>2632</v>
       </c>
-      <c r="CD206" s="1" t="s">
+      <c r="CE206" s="1" t="s">
         <v>2633</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CG206" s="1" t="s">
         <v>2634</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>777</v>
@@ -48582,13 +48519,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -48666,7 +48603,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BB207" s="1">
         <v>8</v>
@@ -48675,13 +48612,13 @@
         <v>20</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>582</v>
@@ -48693,7 +48630,7 @@
         <v>105</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>120</v>
@@ -48711,16 +48648,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2645</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2646</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>588</v>
@@ -48761,16 +48698,16 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2646</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -48857,13 +48794,13 @@
         <v>20</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BG208" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>116</v>
@@ -48872,7 +48809,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>120</v>
@@ -48890,16 +48827,16 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2652</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2653</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>128</v>
@@ -48940,13 +48877,13 @@
         <v>2119</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -48981,12 +48918,7 @@
       <c r="AA209" s="1">
         <v>0</v>
       </c>
-      <c r="AC209" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD209" s="1" t="s">
-        <v>2660</v>
-      </c>
+      <c r="AC209" s="3"/>
       <c r="AF209" s="1" t="s">
         <v>106</v>
       </c>
@@ -49036,7 +48968,7 @@
         <v>101</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="BB209" s="1">
         <v>8</v>
@@ -49045,16 +48977,16 @@
         <v>20</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="BG209" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="BI209" s="1" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="BM209" s="1" t="s">
         <v>116</v>
@@ -49063,7 +48995,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>120</v>
@@ -49075,7 +49007,7 @@
         <v>110</v>
       </c>
       <c r="BZ209" s="1" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="CA209" s="1" t="s">
         <v>122</v>
@@ -49087,16 +49019,16 @@
         <v>1147</v>
       </c>
       <c r="CD209" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="CE209" s="1" t="s">
+        <v>2666</v>
+      </c>
+      <c r="CG209" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CH209" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2669</v>
-      </c>
-      <c r="CH209" s="1" t="s">
-        <v>2670</v>
       </c>
       <c r="CI209" s="1" t="s">
         <v>128</v>
@@ -49134,10 +49066,10 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>110</v>
@@ -49161,7 +49093,7 @@
         <v>106</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>371</v>
@@ -49215,10 +49147,10 @@
         <v>101</v>
       </c>
       <c r="CC210" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CE210" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="211" spans="1:87" x14ac:dyDescent="0.25">
@@ -49229,13 +49161,13 @@
         <v>88</v>
       </c>
       <c r="C211" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>2355</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>101</v>
@@ -49247,16 +49179,16 @@
         <v>94</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>110</v>
@@ -49280,7 +49212,7 @@
         <v>106</v>
       </c>
       <c r="AG211" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH211" s="1" t="s">
         <v>371</v>
@@ -49325,7 +49257,7 @@
         <v>0</v>
       </c>
       <c r="BZ211" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="CA211" s="1" t="s">
         <v>122</v>
@@ -49334,10 +49266,10 @@
         <v>101</v>
       </c>
       <c r="CC211" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CE211" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="212" spans="1:87" x14ac:dyDescent="0.25">
@@ -49372,10 +49304,10 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>110</v>
@@ -49399,7 +49331,7 @@
         <v>106</v>
       </c>
       <c r="AG212" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH212" s="1" t="s">
         <v>371</v>
@@ -49453,10 +49385,10 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CE212" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="213" spans="1:87" x14ac:dyDescent="0.25">
@@ -49473,7 +49405,7 @@
         <v>90</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>92</v>
@@ -49485,16 +49417,16 @@
         <v>94</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>110</v>
@@ -49563,7 +49495,7 @@
         <v>0</v>
       </c>
       <c r="BZ213" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="CA213" s="1" t="s">
         <v>122</v>
@@ -49572,10 +49504,10 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CE213" s="1" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="214" spans="1:87" x14ac:dyDescent="0.25">
@@ -49610,10 +49542,10 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>110</v>
@@ -49691,10 +49623,10 @@
         <v>101</v>
       </c>
       <c r="CC214" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CE214" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="215" spans="1:87" x14ac:dyDescent="0.25">
@@ -49711,7 +49643,7 @@
         <v>90</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>92</v>
@@ -49723,16 +49655,16 @@
         <v>94</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>110</v>
@@ -49801,7 +49733,7 @@
         <v>0</v>
       </c>
       <c r="BZ215" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="CA215" s="1" t="s">
         <v>122</v>
@@ -49810,10 +49742,10 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CE215" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="216" spans="1:87" x14ac:dyDescent="0.25">
@@ -49848,10 +49780,10 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>110</v>
@@ -49929,10 +49861,10 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CE216" s="1" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="217" spans="1:87" x14ac:dyDescent="0.25">
@@ -49967,13 +49899,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2692</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2693</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2694</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2695</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -50002,12 +49934,7 @@
       <c r="AA217" s="1">
         <v>0</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2660</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>106</v>
       </c>
@@ -50060,13 +49987,13 @@
         <v>20</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>1809</v>
@@ -50081,13 +50008,13 @@
         <v>102</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="BS217" s="3">
         <v>36306</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>120</v>
@@ -50105,16 +50032,16 @@
         <v>101</v>
       </c>
       <c r="CC217" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="CD217" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="CE217" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="CD217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2701</v>
-      </c>
-      <c r="CE217" s="1" t="s">
-        <v>2702</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2703</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>1813</v>
@@ -50155,13 +50082,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2706</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -50190,12 +50117,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2660</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>106</v>
       </c>
@@ -50251,13 +50173,13 @@
         <v>20</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>116</v>
@@ -50266,7 +50188,7 @@
         <v>105</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>120</v>
@@ -50284,16 +50206,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>124</v>
       </c>
       <c r="CE218" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="CG218" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>128</v>
@@ -50334,13 +50256,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2714</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2715</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -50372,12 +50294,7 @@
       <c r="AB219" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2660</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>106</v>
       </c>
@@ -50430,13 +50347,13 @@
         <v>20</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1809</v>
@@ -50451,13 +50368,13 @@
         <v>102</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="BS219" s="3">
         <v>38234</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>120</v>
@@ -50475,16 +50392,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>993</v>
       </c>
       <c r="CE219" s="1" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="CG219" s="1" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>1813</v>
@@ -50525,13 +50442,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2723</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2724</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2725</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -50560,12 +50477,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2660</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>106</v>
       </c>
@@ -50621,13 +50533,13 @@
         <v>20</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>771</v>
@@ -50639,7 +50551,7 @@
         <v>105</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>120</v>
@@ -50657,16 +50569,16 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="CD220" s="1" t="s">
+        <v>2728</v>
+      </c>
+      <c r="CE220" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="CE220" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>777</v>
@@ -50707,13 +50619,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2734</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2735</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -50742,12 +50654,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2660</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>106</v>
       </c>
@@ -50800,13 +50707,13 @@
         <v>20</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>594</v>
@@ -50821,13 +50728,13 @@
         <v>228</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
       <c r="BS221" s="3">
         <v>37069</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>120</v>
@@ -50848,13 +50755,13 @@
         <v>752</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="CE221" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="CG221" s="1" t="s">
         <v>2740</v>
-      </c>
-      <c r="CE221" s="1" t="s">
-        <v>2741</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2742</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>600</v>
@@ -50895,13 +50802,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="N222" s="1" t="s">
         <v>2743</v>
-      </c>
-      <c r="L222" s="1" t="s">
-        <v>2744</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -50930,12 +50837,7 @@
       <c r="AA222" s="1">
         <v>0</v>
       </c>
-      <c r="AC222" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD222" s="1" t="s">
-        <v>2660</v>
-      </c>
+      <c r="AC222" s="3"/>
       <c r="AF222" s="1" t="s">
         <v>106</v>
       </c>
@@ -50991,13 +50893,13 @@
         <v>20</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>771</v>
@@ -51009,7 +50911,7 @@
         <v>105</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>120</v>
@@ -51027,16 +50929,16 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="CD222" s="1" t="s">
+        <v>2748</v>
+      </c>
+      <c r="CE222" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="CE222" s="1" t="s">
-        <v>2751</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2752</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>777</v>
@@ -51077,13 +50979,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2751</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="N223" s="1" t="s">
         <v>2753</v>
-      </c>
-      <c r="L223" s="1" t="s">
-        <v>2754</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2755</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -51112,12 +51014,7 @@
       <c r="AA223" s="1">
         <v>0</v>
       </c>
-      <c r="AC223" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD223" s="1" t="s">
-        <v>2756</v>
-      </c>
+      <c r="AC223" s="3"/>
       <c r="AF223" s="1" t="s">
         <v>106</v>
       </c>
@@ -51164,7 +51061,7 @@
         <v>101</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="BB223" s="1">
         <v>8</v>
@@ -51173,16 +51070,16 @@
         <v>20</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="BI223" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>116</v>
@@ -51194,13 +51091,13 @@
         <v>228</v>
       </c>
       <c r="BR223" s="1" t="s">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="BS223" s="3">
         <v>35125</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2762</v>
+        <v>2759</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>120</v>
@@ -51218,19 +51115,19 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>123</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2764</v>
+        <v>2761</v>
       </c>
       <c r="CG223" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>128</v>
@@ -51268,13 +51165,13 @@
         <v>383</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2767</v>
+        <v>2764</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2768</v>
+        <v>2765</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2769</v>
+        <v>2766</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -51358,7 +51255,7 @@
         <v>20</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2770</v>
+        <v>2767</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>113</v>
@@ -51367,7 +51264,7 @@
         <v>116</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>120</v>
@@ -51385,13 +51282,13 @@
         <v>92</v>
       </c>
       <c r="CC224" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CG224" s="1" t="s">
         <v>128</v>
@@ -51435,13 +51332,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -51525,7 +51422,7 @@
         <v>20</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="BG225" s="1" t="s">
         <v>113</v>
@@ -51534,7 +51431,7 @@
         <v>116</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>120</v>
@@ -51555,10 +51452,10 @@
         <v>557</v>
       </c>
       <c r="CD225" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="CE225" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="CG225" s="1" t="s">
         <v>128</v>
@@ -51602,16 +51499,16 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -51698,19 +51595,19 @@
         <v>20</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="BG226" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>120</v>
@@ -51728,16 +51625,16 @@
         <v>101</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2785</v>
+      </c>
+      <c r="CD226" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="CE226" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="CG226" s="1" t="s">
         <v>2788</v>
-      </c>
-      <c r="CD226" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="CE226" s="1" t="s">
-        <v>2790</v>
-      </c>
-      <c r="CG226" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="CH226" s="1" t="s">
         <v>128</v>
@@ -51781,10 +51678,10 @@
         <v>253</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N227" s="1" t="s">
         <v>255</v>
@@ -51814,7 +51711,7 @@
         <v>42582</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>106</v>
@@ -51871,13 +51768,13 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BI227" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="BM227" s="1" t="s">
         <v>116</v>
@@ -51922,10 +51819,10 @@
         <v>266</v>
       </c>
       <c r="CG227" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>128</v>
@@ -51945,7 +51842,7 @@
         <v>129</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>92</v>
@@ -51957,22 +51854,22 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="Q228" s="3">
         <v>17060</v>
@@ -52005,13 +51902,13 @@
         <v>42628</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG228" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="AH228" s="1" t="s">
         <v>137</v>
@@ -52056,22 +51953,22 @@
         <v>101</v>
       </c>
       <c r="AZ228" s="1" t="s">
+        <v>2804</v>
+      </c>
+      <c r="BB228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC228" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD228" s="1" t="s">
+        <v>2805</v>
+      </c>
+      <c r="BH228" s="1" t="s">
+        <v>2806</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>2807</v>
-      </c>
-      <c r="BB228" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC228" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD228" s="1" t="s">
-        <v>2808</v>
-      </c>
-      <c r="BH228" s="1" t="s">
-        <v>2809</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>2810</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>116</v>
@@ -52080,7 +51977,7 @@
         <v>105</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>120</v>
@@ -52089,7 +51986,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>122</v>
@@ -52104,13 +52001,13 @@
         <v>124</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="CG228" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>128</v>
@@ -52124,13 +52021,13 @@
         <v>88</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>101</v>
@@ -52142,22 +52039,22 @@
         <v>94</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="Q229" s="3">
         <v>26864</v>
@@ -52187,7 +52084,7 @@
         <v>42735</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>106</v>
@@ -52241,10 +52138,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>116</v>
@@ -52256,13 +52153,13 @@
         <v>228</v>
       </c>
       <c r="BR229" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="BS229" s="3">
         <v>102</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>120</v>
@@ -52274,7 +52171,7 @@
         <v>110</v>
       </c>
       <c r="BZ229" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="CA229" s="1" t="s">
         <v>122</v>
@@ -52283,16 +52180,16 @@
         <v>101</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2825</v>
+      </c>
+      <c r="CD229" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="CG229" s="1" t="s">
         <v>2828</v>
-      </c>
-      <c r="CD229" s="1" t="s">
-        <v>2829</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>2830</v>
-      </c>
-      <c r="CG229" s="1" t="s">
-        <v>2831</v>
       </c>
       <c r="CH229" s="1" t="s">
         <v>128</v>
@@ -52333,16 +52230,16 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="Q230" s="3">
         <v>25379</v>
@@ -52372,7 +52269,7 @@
         <v>39800</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>239</v>
@@ -52426,10 +52323,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>116</v>
@@ -52441,13 +52338,13 @@
         <v>1614</v>
       </c>
       <c r="BR230" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="BS230" s="3">
         <v>35915</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>120</v>
@@ -52477,10 +52374,10 @@
         <v>431</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="CG230" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>128</v>
@@ -52503,7 +52400,7 @@
         <v>90</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>101</v>
@@ -52515,22 +52412,22 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="Q231" s="3">
         <v>17470</v>
@@ -52560,7 +52457,7 @@
         <v>43100</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>106</v>
@@ -52617,10 +52514,10 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="BH231" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="BM231" s="1" t="s">
         <v>116</v>
@@ -52629,7 +52526,7 @@
         <v>105</v>
       </c>
       <c r="BT231" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="BU231" s="1" t="s">
         <v>120</v>
@@ -52653,16 +52550,16 @@
         <v>101</v>
       </c>
       <c r="CC231" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="CG231" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>128</v>
@@ -52685,7 +52582,7 @@
         <v>90</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>101</v>
@@ -52697,22 +52594,22 @@
         <v>94</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="Q232" s="3">
         <v>23356</v>
@@ -52739,7 +52636,7 @@
         <v>43105</v>
       </c>
       <c r="AD232" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="AF232" s="1" t="s">
         <v>106</v>
@@ -52793,10 +52690,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>116</v>
@@ -52808,13 +52705,13 @@
         <v>102</v>
       </c>
       <c r="BR232" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="BS232" s="3">
         <v>34412</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>120</v>
@@ -52823,7 +52720,7 @@
         <v>0</v>
       </c>
       <c r="BZ232" s="1" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="CA232" s="1" t="s">
         <v>122</v>
@@ -52832,16 +52729,16 @@
         <v>101</v>
       </c>
       <c r="CC232" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="CD232" s="1" t="s">
         <v>2252</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2861</v>
+        <v>2858</v>
       </c>
       <c r="CG232" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="CH232" s="1" t="s">
         <v>128</v>
@@ -52858,13 +52755,13 @@
         <v>88</v>
       </c>
       <c r="C233" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>2355</v>
-      </c>
       <c r="E233" s="1" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>92</v>
@@ -52876,22 +52773,22 @@
         <v>94</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2863</v>
+        <v>2860</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2865</v>
+        <v>2862</v>
       </c>
       <c r="Q233" s="3">
         <v>17726</v>
@@ -52924,7 +52821,7 @@
         <v>43312</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>239</v>
@@ -52975,7 +52872,7 @@
         <v>101</v>
       </c>
       <c r="AZ233" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="BB233" s="1">
         <v>0</v>
@@ -52984,10 +52881,10 @@
         <v>0</v>
       </c>
       <c r="BD233" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="BH233" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="BM233" s="1" t="s">
         <v>116</v>
@@ -52996,7 +52893,7 @@
         <v>105</v>
       </c>
       <c r="BT233" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="BU233" s="1" t="s">
         <v>120</v>
@@ -53005,7 +52902,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>122</v>
@@ -53014,16 +52911,16 @@
         <v>101</v>
       </c>
       <c r="CC233" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="CE233" s="1" t="s">
         <v>883</v>
       </c>
       <c r="CG233" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="CH233" s="1" t="s">
         <v>128</v>
@@ -53046,7 +52943,7 @@
         <v>90</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>92</v>
@@ -53058,22 +52955,22 @@
         <v>94</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="Q234" s="3">
         <v>17041</v>
@@ -53100,7 +52997,7 @@
         <v>42735</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>106</v>
@@ -53157,10 +53054,10 @@
         <v>0</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="BM234" s="1" t="s">
         <v>116</v>
@@ -53169,7 +53066,7 @@
         <v>105</v>
       </c>
       <c r="BT234" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="BU234" s="1" t="s">
         <v>120</v>
@@ -53181,7 +53078,7 @@
         <v>110</v>
       </c>
       <c r="BZ234" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="CA234" s="1" t="s">
         <v>122</v>
@@ -53190,16 +53087,16 @@
         <v>101</v>
       </c>
       <c r="CC234" s="1" t="s">
+        <v>2878</v>
+      </c>
+      <c r="CD234" s="1" t="s">
+        <v>2879</v>
+      </c>
+      <c r="CE234" s="1" t="s">
+        <v>2880</v>
+      </c>
+      <c r="CG234" s="1" t="s">
         <v>2881</v>
-      </c>
-      <c r="CD234" s="1" t="s">
-        <v>2882</v>
-      </c>
-      <c r="CE234" s="1" t="s">
-        <v>2883</v>
-      </c>
-      <c r="CG234" s="1" t="s">
-        <v>2884</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>128</v>
@@ -53216,13 +53113,13 @@
         <v>88</v>
       </c>
       <c r="C235" s="1" t="s">
+        <v>2353</v>
+      </c>
+      <c r="D235" s="1" t="s">
         <v>2354</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>2355</v>
-      </c>
       <c r="E235" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>101</v>
@@ -53234,22 +53131,22 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="Q235" s="3">
         <v>30147</v>
@@ -53272,17 +53169,12 @@
       <c r="AA235" s="1">
         <v>0</v>
       </c>
-      <c r="AC235" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD235" s="1" t="s">
-        <v>2660</v>
-      </c>
+      <c r="AC235" s="3"/>
       <c r="AF235" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG235" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH235" s="1" t="s">
         <v>371</v>
@@ -53330,10 +53222,10 @@
         <v>0</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="BM235" s="1" t="s">
         <v>116</v>
@@ -53345,13 +53237,13 @@
         <v>102</v>
       </c>
       <c r="BR235" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="BS235" s="3">
         <v>37124</v>
       </c>
       <c r="BT235" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="BU235" s="1" t="s">
         <v>120</v>
@@ -53360,7 +53252,7 @@
         <v>0</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>122</v>
@@ -53369,16 +53261,16 @@
         <v>101</v>
       </c>
       <c r="CC235" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="CD235" s="1" t="s">
         <v>1123</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="CG235" s="1" t="s">
-        <v>2862</v>
+        <v>2859</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>128</v>
@@ -53419,16 +53311,16 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="Q236" s="3">
         <v>17821</v>
@@ -53464,13 +53356,13 @@
         <v>43388</v>
       </c>
       <c r="AD236" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="AF236" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>1216</v>
@@ -53515,7 +53407,7 @@
         <v>101</v>
       </c>
       <c r="AZ236" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="BB236" s="1">
         <v>0</v>
@@ -53524,10 +53416,10 @@
         <v>0</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="BM236" s="1" t="s">
         <v>116</v>
@@ -53536,7 +53428,7 @@
         <v>105</v>
       </c>
       <c r="BT236" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="BU236" s="1" t="s">
         <v>120</v>
@@ -53554,16 +53446,16 @@
         <v>101</v>
       </c>
       <c r="CC236" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>505</v>
       </c>
       <c r="CG236" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="CH236" s="1" t="s">
         <v>128</v>
@@ -53577,10 +53469,10 @@
         <v>87</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1214</v>
@@ -53595,7 +53487,7 @@
         <v>93</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1214</v>
@@ -53604,13 +53496,13 @@
         <v>151</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2911</v>
+        <v>2908</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2912</v>
+        <v>2909</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2913</v>
+        <v>2910</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -53664,7 +53556,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -53697,19 +53589,19 @@
         <v>20</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="BM237" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>120</v>
@@ -53727,16 +53619,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="CD237" s="1" t="s">
         <v>306</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="CG237" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>128</v>
@@ -53750,10 +53642,10 @@
         <v>87</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1214</v>
@@ -53768,7 +53660,7 @@
         <v>93</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1214</v>
@@ -53777,13 +53669,13 @@
         <v>151</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -53834,7 +53726,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -53870,19 +53762,19 @@
         <v>20</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>120</v>
@@ -53909,10 +53801,10 @@
         <v>1051</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>128</v>
@@ -53926,10 +53818,10 @@
         <v>87</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1214</v>
@@ -53944,7 +53836,7 @@
         <v>93</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1214</v>
@@ -53953,13 +53845,13 @@
         <v>151</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54010,7 +53902,7 @@
         <v>0</v>
       </c>
       <c r="AN239" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="AO239" s="1">
         <v>0</v>
@@ -54046,19 +53938,19 @@
         <v>20</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="BM239" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>120</v>
@@ -54079,16 +53971,16 @@
         <v>101</v>
       </c>
       <c r="CC239" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="CD239" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="CE239" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="CG239" s="1" t="s">
         <v>2937</v>
-      </c>
-      <c r="CD239" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="CE239" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="CG239" s="1" t="s">
-        <v>2940</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>128</v>
@@ -54102,10 +53994,10 @@
         <v>87</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1214</v>
@@ -54120,7 +54012,7 @@
         <v>93</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1214</v>
@@ -54129,13 +54021,13 @@
         <v>151</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -54222,19 +54114,19 @@
         <v>20</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="BM240" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>120</v>
@@ -54255,7 +54147,7 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="CD240" s="1" t="s">
         <v>597</v>
@@ -54264,7 +54156,7 @@
         <v>505</v>
       </c>
       <c r="CG240" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>128</v>
@@ -54278,10 +54170,10 @@
         <v>87</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1214</v>
@@ -54296,7 +54188,7 @@
         <v>93</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1214</v>
@@ -54305,13 +54197,13 @@
         <v>151</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -54365,7 +54257,7 @@
         <v>0</v>
       </c>
       <c r="AN241" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="AO241" s="1">
         <v>0</v>
@@ -54401,19 +54293,19 @@
         <v>20</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>120</v>
@@ -54437,13 +54329,13 @@
         <v>486</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="CG241" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>128</v>
@@ -54457,10 +54349,10 @@
         <v>87</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1214</v>
@@ -54475,7 +54367,7 @@
         <v>93</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1214</v>
@@ -54484,13 +54376,13 @@
         <v>151</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -54577,19 +54469,19 @@
         <v>20</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>120</v>
@@ -54610,16 +54502,16 @@
         <v>101</v>
       </c>
       <c r="CC242" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="CD242" s="1" t="s">
         <v>610</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="CG242" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="CH242" s="1" t="s">
         <v>128</v>
@@ -54633,10 +54525,10 @@
         <v>87</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1214</v>
@@ -54651,7 +54543,7 @@
         <v>93</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1214</v>
@@ -54660,13 +54552,13 @@
         <v>151</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -54702,7 +54594,7 @@
         <v>106</v>
       </c>
       <c r="AG243" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="AH243" s="1" t="s">
         <v>1216</v>
@@ -54720,7 +54612,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -54756,19 +54648,19 @@
         <v>20</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BM243" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>120</v>
@@ -54789,16 +54681,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CD243" s="1" t="s">
         <v>981</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="CG243" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>128</v>
@@ -54812,10 +54704,10 @@
         <v>87</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1214</v>
@@ -54830,7 +54722,7 @@
         <v>93</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1214</v>
@@ -54839,13 +54731,13 @@
         <v>151</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -54899,7 +54791,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -54935,19 +54827,19 @@
         <v>20</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>120</v>
@@ -54971,13 +54863,13 @@
         <v>967</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>128</v>
@@ -54991,10 +54883,10 @@
         <v>87</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1214</v>
@@ -55009,7 +54901,7 @@
         <v>93</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1214</v>
@@ -55018,13 +54910,13 @@
         <v>151</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55078,7 +54970,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55114,19 +55006,19 @@
         <v>20</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>120</v>
@@ -55153,10 +55045,10 @@
         <v>2084</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>128</v>
@@ -55170,10 +55062,10 @@
         <v>87</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1214</v>
@@ -55188,7 +55080,7 @@
         <v>93</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1214</v>
@@ -55197,13 +55089,13 @@
         <v>151</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="L246" s="1" t="s">
         <v>2196</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -55239,7 +55131,7 @@
         <v>106</v>
       </c>
       <c r="AG246" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="AH246" s="1" t="s">
         <v>1216</v>
@@ -55254,7 +55146,7 @@
         <v>0</v>
       </c>
       <c r="AN246" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="AO246" s="1">
         <v>0</v>
@@ -55287,19 +55179,19 @@
         <v>20</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BM246" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>120</v>
@@ -55317,16 +55209,16 @@
         <v>101</v>
       </c>
       <c r="CC246" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="CD246" s="1" t="s">
+        <v>2998</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>2999</v>
+      </c>
+      <c r="CG246" s="1" t="s">
         <v>3000</v>
-      </c>
-      <c r="CD246" s="1" t="s">
-        <v>3001</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>3002</v>
-      </c>
-      <c r="CG246" s="1" t="s">
-        <v>3003</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>128</v>
@@ -55340,10 +55232,10 @@
         <v>87</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1214</v>
@@ -55358,7 +55250,7 @@
         <v>93</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1214</v>
@@ -55367,19 +55259,19 @@
         <v>151</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="L247" s="1" t="s">
         <v>2204</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P247" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="Q247" s="3">
         <v>16452</v>
@@ -55457,19 +55349,19 @@
         <v>20</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>120</v>
@@ -55490,16 +55382,16 @@
         <v>2135</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>3008</v>
+      </c>
+      <c r="CE247" s="1" t="s">
+        <v>3009</v>
+      </c>
+      <c r="CG247" s="1" t="s">
         <v>3010</v>
-      </c>
-      <c r="CD247" s="1" t="s">
-        <v>3011</v>
-      </c>
-      <c r="CE247" s="1" t="s">
-        <v>3012</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>3013</v>
       </c>
       <c r="CH247" s="1" t="s">
         <v>128</v>
@@ -55513,10 +55405,10 @@
         <v>87</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1214</v>
@@ -55531,7 +55423,7 @@
         <v>93</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1214</v>
@@ -55540,13 +55432,13 @@
         <v>151</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -55630,19 +55522,19 @@
         <v>20</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>120</v>
@@ -55663,13 +55555,13 @@
         <v>1160</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="CG248" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>128</v>
@@ -55683,10 +55575,10 @@
         <v>87</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1214</v>
@@ -55701,7 +55593,7 @@
         <v>93</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1214</v>
@@ -55710,13 +55602,13 @@
         <v>151</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -55767,7 +55659,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -55803,19 +55695,19 @@
         <v>20</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="BM249" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>120</v>
@@ -55836,16 +55728,16 @@
         <v>101</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="CG249" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>128</v>
@@ -55859,10 +55751,10 @@
         <v>87</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1214</v>
@@ -55877,7 +55769,7 @@
         <v>93</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1214</v>
@@ -55886,13 +55778,13 @@
         <v>151</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -55946,7 +55838,7 @@
         <v>0</v>
       </c>
       <c r="AN250" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="AO250" s="1">
         <v>0</v>
@@ -55982,19 +55874,19 @@
         <v>20</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>120</v>
@@ -56015,16 +55907,16 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>3037</v>
+      </c>
+      <c r="CE250" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="CG250" s="1" t="s">
         <v>3039</v>
-      </c>
-      <c r="CD250" s="1" t="s">
-        <v>3040</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>3041</v>
-      </c>
-      <c r="CG250" s="1" t="s">
-        <v>3042</v>
       </c>
       <c r="CH250" s="1" t="s">
         <v>128</v>
@@ -56038,10 +55930,10 @@
         <v>87</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1214</v>
@@ -56056,7 +55948,7 @@
         <v>93</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1214</v>
@@ -56065,13 +55957,13 @@
         <v>151</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56125,7 +56017,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56161,19 +56053,19 @@
         <v>20</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>120</v>
@@ -56194,16 +56086,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="CD251" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="CE251" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="CG251" s="1" t="s">
         <v>3049</v>
-      </c>
-      <c r="CD251" s="1" t="s">
-        <v>3050</v>
-      </c>
-      <c r="CE251" s="1" t="s">
-        <v>3051</v>
-      </c>
-      <c r="CG251" s="1" t="s">
-        <v>3052</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>128</v>
@@ -56217,10 +56109,10 @@
         <v>87</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1214</v>
@@ -56235,7 +56127,7 @@
         <v>93</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1214</v>
@@ -56244,16 +56136,16 @@
         <v>151</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -56346,7 +56238,7 @@
         <v>20</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>113</v>
@@ -56373,10 +56265,10 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="CE252" s="1" t="s">
         <v>217</v>
@@ -56396,10 +56288,10 @@
         <v>87</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1214</v>
@@ -56414,7 +56306,7 @@
         <v>93</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1214</v>
@@ -56423,13 +56315,13 @@
         <v>151</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -56483,7 +56375,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -56519,25 +56411,25 @@
         <v>20</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>120</v>
       </c>
       <c r="BW253" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BX253" s="1">
         <v>0</v>
@@ -56555,16 +56447,16 @@
         <v>101</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="CD253" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>128</v>
@@ -56578,10 +56470,10 @@
         <v>87</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1214</v>
@@ -56596,7 +56488,7 @@
         <v>93</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1214</v>
@@ -56605,13 +56497,13 @@
         <v>151</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -56662,7 +56554,7 @@
         <v>0</v>
       </c>
       <c r="AN254" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="AO254" s="1">
         <v>0</v>
@@ -56698,19 +56590,19 @@
         <v>20</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>120</v>
@@ -56731,16 +56623,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>128</v>
@@ -56754,10 +56646,10 @@
         <v>87</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1214</v>
@@ -56772,7 +56664,7 @@
         <v>93</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1214</v>
@@ -56781,13 +56673,13 @@
         <v>151</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -56814,7 +56706,7 @@
         <v>0</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="AH255" s="1" t="s">
         <v>371</v>
@@ -56829,7 +56721,7 @@
         <v>0</v>
       </c>
       <c r="AN255" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="AO255" s="1">
         <v>0</v>
@@ -56859,19 +56751,19 @@
         <v>20</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>120</v>
@@ -56889,16 +56781,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>306</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>128</v>
@@ -56912,10 +56804,10 @@
         <v>87</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1214</v>
@@ -56930,7 +56822,7 @@
         <v>93</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1214</v>
@@ -56939,13 +56831,13 @@
         <v>151</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -57029,19 +56921,19 @@
         <v>20</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>120</v>
@@ -57059,16 +56951,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
+        <v>3091</v>
+      </c>
+      <c r="CD256" s="1" t="s">
+        <v>3092</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3093</v>
+      </c>
+      <c r="CG256" s="1" t="s">
         <v>3094</v>
-      </c>
-      <c r="CD256" s="1" t="s">
-        <v>3095</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3096</v>
-      </c>
-      <c r="CG256" s="1" t="s">
-        <v>3097</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>128</v>
@@ -57082,10 +56974,10 @@
         <v>87</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>1214</v>
@@ -57100,7 +56992,7 @@
         <v>93</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I257" s="1" t="s">
         <v>1214</v>
@@ -57109,13 +57001,13 @@
         <v>151</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>100</v>
@@ -57202,19 +57094,19 @@
         <v>20</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>120</v>
@@ -57232,16 +57124,16 @@
         <v>101</v>
       </c>
       <c r="CC257" s="1" t="s">
+        <v>3101</v>
+      </c>
+      <c r="CD257" s="1" t="s">
+        <v>3102</v>
+      </c>
+      <c r="CE257" s="1" t="s">
+        <v>3103</v>
+      </c>
+      <c r="CG257" s="1" t="s">
         <v>3104</v>
-      </c>
-      <c r="CD257" s="1" t="s">
-        <v>3105</v>
-      </c>
-      <c r="CE257" s="1" t="s">
-        <v>3106</v>
-      </c>
-      <c r="CG257" s="1" t="s">
-        <v>3107</v>
       </c>
       <c r="CH257" s="1" t="s">
         <v>128</v>
@@ -57255,10 +57147,10 @@
         <v>87</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>1214</v>
@@ -57273,7 +57165,7 @@
         <v>93</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="I258" s="1" t="s">
         <v>1214</v>
@@ -57282,13 +57174,13 @@
         <v>151</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>100</v>
@@ -57297,7 +57189,7 @@
         <v>101</v>
       </c>
       <c r="Q258" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="R258" s="1" t="s">
         <v>135</v>
@@ -57339,7 +57231,7 @@
         <v>0</v>
       </c>
       <c r="AN258" s="1" t="s">
-        <v>2914</v>
+        <v>2911</v>
       </c>
       <c r="AO258" s="1">
         <v>0</v>
@@ -57372,19 +57264,19 @@
         <v>20</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>116</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>120</v>
@@ -57402,16 +57294,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3115</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3116</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3117</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3118</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>128</v>
@@ -57452,16 +57344,16 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>100</v>
@@ -57494,7 +57386,7 @@
         <v>43980</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>106</v>
@@ -57551,7 +57443,7 @@
         <v>1802</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>116</v>
@@ -57563,13 +57455,13 @@
         <v>1614</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="BS259" s="3">
         <v>35915</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>120</v>
@@ -57593,7 +57485,7 @@
         <v>431</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="CG259" s="1" t="s">
         <v>1803</v>
@@ -57637,16 +57529,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>100</v>
@@ -57679,7 +57571,7 @@
         <v>44008</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -57736,10 +57628,10 @@
         <v>20</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>116</v>
@@ -57748,7 +57640,7 @@
         <v>105</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>120</v>
@@ -57772,10 +57664,10 @@
         <v>334</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CG260" s="1" t="s">
         <v>783</v>
@@ -57819,13 +57711,13 @@
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -57861,7 +57753,7 @@
         <v>106</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="AH261" s="1" t="s">
         <v>60</v>
@@ -57912,13 +57804,13 @@
         <v>20</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BG261" s="1" t="s">
         <v>113</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>116</v>
@@ -57927,7 +57819,7 @@
         <v>105</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>120</v>
@@ -57948,13 +57840,13 @@
         <v>334</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>128</v>
@@ -57971,7 +57863,7 @@
         <v>88</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="D262" s="4" t="s">
         <v>382</v>
@@ -57995,14 +57887,14 @@
         <v>96</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="M262" s="4"/>
       <c r="N262" s="4" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="O262" s="4" t="s">
         <v>100</v>
@@ -58035,12 +57927,8 @@
         <v>0</v>
       </c>
       <c r="AB262" s="4"/>
-      <c r="AC262" s="5">
-        <v>42309</v>
-      </c>
-      <c r="AD262" s="4" t="s">
-        <v>2256</v>
-      </c>
+      <c r="AC262" s="5"/>
+      <c r="AD262" s="4"/>
       <c r="AF262" s="4" t="s">
         <v>106</v>
       </c>
@@ -58094,7 +57982,7 @@
         <v>101</v>
       </c>
       <c r="AZ262" s="4" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BA262" s="4" t="s">
         <v>277</v>
@@ -58106,7 +57994,7 @@
         <v>20</v>
       </c>
       <c r="BD262" s="4" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BE262" s="4"/>
       <c r="BF262" s="4"/>
@@ -58114,10 +58002,10 @@
         <v>113</v>
       </c>
       <c r="BH262" s="4" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="BI262" s="4" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="BJ262" s="4"/>
       <c r="BK262" s="4"/>
@@ -58132,13 +58020,13 @@
       <c r="BP262" s="4"/>
       <c r="BQ262" s="4"/>
       <c r="BR262" s="4" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BS262" s="5">
         <v>34307</v>
       </c>
       <c r="BT262" s="4" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BU262" s="4" t="s">
         <v>120</v>
@@ -58150,7 +58038,7 @@
       </c>
       <c r="BY262" s="4"/>
       <c r="BZ262" s="4" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="CA262" s="4" t="s">
         <v>122</v>
@@ -58159,26 +58047,27 @@
         <v>101</v>
       </c>
       <c r="CC262" s="4" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="CD262" s="4" t="s">
         <v>418</v>
       </c>
       <c r="CE262" s="4" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CF262" s="4"/>
       <c r="CG262" s="4" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CH262" s="4" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CI262" s="4" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI262" xr:uid="{C67006DC-E75D-41C7-AFFE-E99F61E3D4B4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>